--- a/WGRDBESstockCoord/format/RCEF_v14_suggestions/RCEF_tv14.5_example.xlsx
+++ b/WGRDBESstockCoord/format/RCEF_v14_suggestions/RCEF_tv14.5_example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dtudk-my.sharepoint.com/personal/kibi_dtu_dk/Documents/gits/RDBESstockCoord/WGRDBESstockCoord/format/RCEF_v14_suggestions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="58" documentId="8_{951D2149-635F-40D6-A3C2-D99581A494DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{88031C72-B655-47CA-94D3-03503752D423}"/>
+  <xr:revisionPtr revIDLastSave="61" documentId="8_{951D2149-635F-40D6-A3C2-D99581A494DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7E54484-8CC7-4BAD-83AA-76E3F0D311A5}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="735" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1346" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1347" uniqueCount="113">
   <si>
     <t>year</t>
   </si>
@@ -379,13 +379,16 @@
   </si>
   <si>
     <t>WGFleet, WGFleetList, Metier6, Metier6List, Metier5, Metier5List, Metier4, Metier4List</t>
+  </si>
+  <si>
+    <t>Is an underestimate ok?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -408,6 +411,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -445,7 +455,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -458,6 +468,8 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1372,10 +1384,10 @@
   <sheetPr>
     <tabColor rgb="FFEE0000"/>
   </sheetPr>
-  <dimension ref="A1:Y47"/>
+  <dimension ref="A1:Y50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O47" sqref="O47"/>
+      <selection activeCell="M52" sqref="M52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3530,460 +3542,465 @@
       <c r="W39" s="11"/>
       <c r="X39" s="11"/>
     </row>
-    <row r="40" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="1">
+    <row r="40" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="12">
         <v>5</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C40" s="1">
-        <v>2023</v>
-      </c>
-      <c r="D40" s="1" t="s">
+      <c r="C40" s="12">
+        <v>2023</v>
+      </c>
+      <c r="D40" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E40" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F40" s="1">
+      <c r="F40" s="12">
         <v>126436</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="G40" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="H40" s="1" t="s">
+      <c r="H40" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="I40" s="1">
+      <c r="I40" s="12">
         <v>2</v>
       </c>
-      <c r="J40" s="1" t="s">
+      <c r="J40" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="K40" s="1" t="s">
+      <c r="K40" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="M40" s="1" t="s">
+      <c r="M40" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="N40" s="1" t="s">
+      <c r="N40" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="O40" s="1" t="s">
+      <c r="O40" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="P40" s="1" t="s">
+      <c r="P40" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="S40" s="1" t="s">
+      <c r="S40" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="T40" s="11">
+      <c r="T40" s="13">
         <v>3204.3587623111098</v>
       </c>
-      <c r="U40" s="11"/>
-      <c r="V40" s="11"/>
-      <c r="W40" s="11"/>
-      <c r="X40" s="11"/>
-    </row>
-    <row r="41" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="1">
+      <c r="U40" s="13"/>
+      <c r="V40" s="13"/>
+      <c r="W40" s="13"/>
+      <c r="X40" s="13"/>
+    </row>
+    <row r="41" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="12">
         <v>5</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C41" s="1">
-        <v>2023</v>
-      </c>
-      <c r="D41" s="1" t="s">
+      <c r="C41" s="12">
+        <v>2023</v>
+      </c>
+      <c r="D41" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E41" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F41" s="1">
+      <c r="F41" s="12">
         <v>126436</v>
       </c>
-      <c r="G41" s="1" t="s">
+      <c r="G41" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="H41" s="1" t="s">
+      <c r="H41" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="I41" s="1">
+      <c r="I41" s="12">
         <v>2</v>
       </c>
-      <c r="J41" s="1" t="s">
+      <c r="J41" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="K41" s="1" t="s">
+      <c r="K41" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="M41" s="1" t="s">
+      <c r="M41" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="N41" s="1" t="s">
+      <c r="N41" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="O41" s="1" t="s">
+      <c r="O41" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="P41" s="1" t="s">
+      <c r="P41" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="S41" s="1" t="s">
+      <c r="S41" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="T41" s="11">
+      <c r="T41" s="13">
         <v>47.829527120675699</v>
       </c>
-      <c r="U41" s="11"/>
-      <c r="V41" s="11"/>
-      <c r="W41" s="11"/>
-      <c r="X41" s="11"/>
-    </row>
-    <row r="42" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="1">
+      <c r="U41" s="13"/>
+      <c r="V41" s="13"/>
+      <c r="W41" s="13"/>
+      <c r="X41" s="13"/>
+    </row>
+    <row r="42" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="12">
         <v>5</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C42" s="1">
-        <v>2023</v>
-      </c>
-      <c r="D42" s="1" t="s">
+      <c r="C42" s="12">
+        <v>2023</v>
+      </c>
+      <c r="D42" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E42" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F42" s="1">
+      <c r="F42" s="12">
         <v>126436</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="G42" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="H42" s="1" t="s">
+      <c r="H42" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="I42" s="1">
+      <c r="I42" s="12">
         <v>2</v>
       </c>
-      <c r="J42" s="1" t="s">
+      <c r="J42" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="K42" s="1" t="s">
+      <c r="K42" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="N42" s="1" t="s">
+      <c r="N42" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="O42" s="1" t="s">
+      <c r="O42" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="P42" s="1" t="s">
+      <c r="P42" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="S42" s="1" t="s">
+      <c r="S42" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="T42" s="11">
+      <c r="T42" s="13">
         <v>25</v>
       </c>
-      <c r="U42" s="11"/>
-      <c r="V42" s="11" t="s">
+      <c r="U42" s="13"/>
+      <c r="V42" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="W42" s="11">
+      <c r="W42" s="13">
         <v>10</v>
       </c>
-      <c r="X42" s="11">
+      <c r="X42" s="13">
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="1">
+    <row r="43" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="12">
         <v>5</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C43" s="1">
-        <v>2023</v>
-      </c>
-      <c r="D43" s="1" t="s">
+      <c r="C43" s="12">
+        <v>2023</v>
+      </c>
+      <c r="D43" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="E43" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F43" s="1">
+      <c r="F43" s="12">
         <v>126436</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="G43" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="H43" s="1" t="s">
+      <c r="H43" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="I43" s="1">
+      <c r="I43" s="12">
         <v>2</v>
       </c>
-      <c r="J43" s="1" t="s">
+      <c r="J43" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="K43" s="1" t="s">
+      <c r="K43" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="M43" s="1" t="s">
+      <c r="M43" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="N43" s="1" t="s">
+      <c r="N43" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="O43" s="1" t="s">
+      <c r="O43" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="S43" s="1" t="s">
+      <c r="S43" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="T43" s="11">
+      <c r="T43" s="13">
         <v>29.0119357505049</v>
       </c>
-      <c r="U43" s="11"/>
-      <c r="V43" s="11"/>
-      <c r="W43" s="11"/>
-      <c r="X43" s="11"/>
-    </row>
-    <row r="44" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="1">
+      <c r="U43" s="13"/>
+      <c r="V43" s="13"/>
+      <c r="W43" s="13"/>
+      <c r="X43" s="13"/>
+    </row>
+    <row r="44" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="12">
         <v>5</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C44" s="1">
-        <v>2023</v>
-      </c>
-      <c r="D44" s="1" t="s">
+      <c r="C44" s="12">
+        <v>2023</v>
+      </c>
+      <c r="D44" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="E44" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F44" s="1">
+      <c r="F44" s="12">
         <v>126436</v>
       </c>
-      <c r="G44" s="1" t="s">
+      <c r="G44" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="H44" s="1" t="s">
+      <c r="H44" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="I44" s="1">
+      <c r="I44" s="12">
         <v>2</v>
       </c>
-      <c r="J44" s="1" t="s">
+      <c r="J44" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="K44" s="1" t="s">
+      <c r="K44" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="M44" s="1" t="s">
+      <c r="M44" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="N44" s="1" t="s">
+      <c r="N44" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="O44" s="1" t="s">
+      <c r="O44" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="P44" s="1" t="s">
+      <c r="P44" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="S44" s="1" t="s">
+      <c r="S44" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="T44" s="11">
+      <c r="T44" s="13">
         <v>94.627699438656904</v>
       </c>
-      <c r="U44" s="11"/>
-      <c r="V44" s="11"/>
-      <c r="W44" s="11"/>
-      <c r="X44" s="11"/>
-    </row>
-    <row r="45" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="1">
+      <c r="U44" s="13"/>
+      <c r="V44" s="13"/>
+      <c r="W44" s="13"/>
+      <c r="X44" s="13"/>
+    </row>
+    <row r="45" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="12">
         <v>5</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C45" s="1">
-        <v>2023</v>
-      </c>
-      <c r="D45" s="1" t="s">
+      <c r="C45" s="12">
+        <v>2023</v>
+      </c>
+      <c r="D45" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="E45" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F45" s="1">
+      <c r="F45" s="12">
         <v>126436</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="G45" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="H45" s="1" t="s">
+      <c r="H45" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="I45" s="1">
+      <c r="I45" s="12">
         <v>2</v>
       </c>
-      <c r="J45" s="1" t="s">
+      <c r="J45" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="K45" s="1" t="s">
+      <c r="K45" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="M45" s="1" t="s">
+      <c r="M45" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="N45" s="1" t="s">
+      <c r="N45" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="O45" s="1" t="s">
+      <c r="O45" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="P45" s="1" t="s">
+      <c r="P45" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="S45" s="1" t="s">
+      <c r="S45" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="T45" s="11">
+      <c r="T45" s="13">
         <v>56.258362843578396</v>
       </c>
-      <c r="U45" s="11"/>
-      <c r="V45" s="11"/>
-      <c r="W45" s="11"/>
-      <c r="X45" s="11"/>
-    </row>
-    <row r="46" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="1">
+      <c r="U45" s="13"/>
+      <c r="V45" s="13"/>
+      <c r="W45" s="13"/>
+      <c r="X45" s="13"/>
+    </row>
+    <row r="46" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="12">
         <v>5</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C46" s="1">
-        <v>2023</v>
-      </c>
-      <c r="D46" s="1" t="s">
+      <c r="C46" s="12">
+        <v>2023</v>
+      </c>
+      <c r="D46" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E46" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F46" s="1">
+      <c r="F46" s="12">
         <v>126436</v>
       </c>
-      <c r="G46" s="1" t="s">
+      <c r="G46" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="H46" s="1" t="s">
+      <c r="H46" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="I46" s="1">
+      <c r="I46" s="12">
         <v>2</v>
       </c>
-      <c r="J46" s="1" t="s">
+      <c r="J46" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="K46" s="1" t="s">
+      <c r="K46" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="M46" s="1" t="s">
+      <c r="M46" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="N46" s="1" t="s">
+      <c r="N46" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="O46" s="1" t="s">
+      <c r="O46" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="S46" s="1" t="s">
+      <c r="S46" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="T46" s="11">
+      <c r="T46" s="13">
         <v>62.444531524443299</v>
       </c>
-      <c r="U46" s="11"/>
-      <c r="V46" s="11"/>
-      <c r="W46" s="11"/>
-      <c r="X46" s="11"/>
-    </row>
-    <row r="47" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="1">
+      <c r="U46" s="13"/>
+      <c r="V46" s="13"/>
+      <c r="W46" s="13"/>
+      <c r="X46" s="13"/>
+    </row>
+    <row r="47" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="12">
         <v>5</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C47" s="1">
-        <v>2023</v>
-      </c>
-      <c r="D47" s="1" t="s">
+      <c r="C47" s="12">
+        <v>2023</v>
+      </c>
+      <c r="D47" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="E47" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F47" s="1">
+      <c r="F47" s="12">
         <v>126436</v>
       </c>
-      <c r="G47" s="1" t="s">
+      <c r="G47" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="H47" s="1" t="s">
+      <c r="H47" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="I47" s="1">
+      <c r="I47" s="12">
         <v>2</v>
       </c>
-      <c r="J47" s="1" t="s">
+      <c r="J47" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="K47" s="1" t="s">
+      <c r="K47" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="N47" s="1" t="s">
+      <c r="N47" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="O47" s="1" t="s">
+      <c r="O47" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="P47" s="1" t="s">
+      <c r="P47" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="S47" s="1" t="s">
+      <c r="S47" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="T47" s="11">
+      <c r="T47" s="13">
         <v>0</v>
       </c>
-      <c r="U47" s="11"/>
-      <c r="V47" s="11" t="s">
+      <c r="U47" s="13"/>
+      <c r="V47" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="W47" s="11">
+      <c r="W47" s="13">
         <v>1</v>
       </c>
-      <c r="X47" s="11">
+      <c r="X47" s="13">
         <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="15:15" x14ac:dyDescent="0.3">
+      <c r="O50" s="12" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -8233,6 +8250,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+    <TaxCatchAllLabel xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+    <TaxKeywordTaxHTField xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C227E214A244A84FBAA5152CDD6EAC80" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9202a1ecfe0ad2ec696e0f91981ba8e0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4d5313c0-c1e6-4122-afa9-da1ccdba405d" xmlns:ns3="362c980f-4e38-4cca-bd06-5104ee5993c5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a46f65cc92525120babafc4c69c5d04c" ns2:_="" ns3:_="">
     <xsd:import namespace="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
@@ -8409,28 +8447,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60664607-CBCD-4AFC-843C-4CFA04400440}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="362c980f-4e38-4cca-bd06-5104ee5993c5"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
-    <TaxCatchAllLabel xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
-    <TaxKeywordTaxHTField xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{718E005C-88DE-4F66-B59B-F1C1FF5E3D2A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD780A6C-FDDC-4177-9817-26C904DC3A4B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8447,29 +8489,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{718E005C-88DE-4F66-B59B-F1C1FF5E3D2A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60664607-CBCD-4AFC-843C-4CFA04400440}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="362c980f-4e38-4cca-bd06-5104ee5993c5"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/WGRDBESstockCoord/format/RCEF_v14_suggestions/RCEF_tv14.5_example.xlsx
+++ b/WGRDBESstockCoord/format/RCEF_v14_suggestions/RCEF_tv14.5_example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dtudk-my.sharepoint.com/personal/kibi_dtu_dk/Documents/gits/RDBESstockCoord/WGRDBESstockCoord/format/RCEF_v14_suggestions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="61" documentId="8_{951D2149-635F-40D6-A3C2-D99581A494DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7E54484-8CC7-4BAD-83AA-76E3F0D311A5}"/>
+  <xr:revisionPtr revIDLastSave="87" documentId="8_{951D2149-635F-40D6-A3C2-D99581A494DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{98B44E74-58BD-4B00-8C3D-7749EA7BD794}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="735" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1347" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1271" uniqueCount="109">
   <si>
     <t>year</t>
   </si>
@@ -369,19 +369,7 @@
     <t>Metier4</t>
   </si>
   <si>
-    <t>Metier5</t>
-  </si>
-  <si>
-    <t>GNS_DEF</t>
-  </si>
-  <si>
-    <t>Q2_27.3.21_GNS_DEF</t>
-  </si>
-  <si>
     <t>WGFleet, WGFleetList, Metier6, Metier6List, Metier5, Metier5List, Metier4, Metier4List</t>
-  </si>
-  <si>
-    <t>Is an underestimate ok?</t>
   </si>
 </sst>
 </file>
@@ -911,10 +899,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B48A55BC-D03E-4CBB-A0B5-0F479A2B792C}" name="Table3" displayName="Table3" ref="A2:Y47" totalsRowShown="0" dataDxfId="28">
   <autoFilter ref="A2:Y47" xr:uid="{B48A55BC-D03E-4CBB-A0B5-0F479A2B792C}"/>
@@ -1387,7 +1371,7 @@
   <dimension ref="A1:Y50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M52" sqref="M52"/>
+      <selection activeCell="P55" sqref="P55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1430,7 +1414,7 @@
         <v>87</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="S1" s="4" t="s">
         <v>79</v>
@@ -2710,7 +2694,12 @@
       <c r="O23" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="T23" s="11"/>
+      <c r="S23" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="T23" s="11">
+        <v>60</v>
+      </c>
       <c r="U23" s="11"/>
       <c r="V23" s="11"/>
       <c r="W23" s="11"/>
@@ -2762,7 +2751,12 @@
       <c r="P24" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="T24" s="11"/>
+      <c r="S24" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="T24" s="11">
+        <v>47.829527120675699</v>
+      </c>
       <c r="U24" s="11"/>
       <c r="V24" s="11"/>
       <c r="W24" s="11"/>
@@ -2814,7 +2808,12 @@
       <c r="P25" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="T25" s="11"/>
+      <c r="S25" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="T25" s="11">
+        <v>25</v>
+      </c>
       <c r="U25" s="11"/>
       <c r="V25" s="11"/>
       <c r="W25" s="11"/>
@@ -2866,7 +2865,12 @@
       <c r="P26" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="T26" s="11"/>
+      <c r="S26" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="T26" s="11">
+        <v>29.0119357505049</v>
+      </c>
       <c r="U26" s="11"/>
       <c r="V26" s="11"/>
       <c r="W26" s="11"/>
@@ -2918,7 +2922,12 @@
       <c r="P27" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="T27" s="11"/>
+      <c r="S27" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="T27" s="11">
+        <v>94.627699438656904</v>
+      </c>
       <c r="U27" s="11"/>
       <c r="V27" s="11"/>
       <c r="W27" s="11"/>
@@ -2970,7 +2979,12 @@
       <c r="P28" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="T28" s="11"/>
+      <c r="S28" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="T28" s="11">
+        <v>56.258362843578396</v>
+      </c>
       <c r="U28" s="11"/>
       <c r="V28" s="11"/>
       <c r="W28" s="11"/>
@@ -3022,7 +3036,12 @@
       <c r="P29" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="T29" s="11"/>
+      <c r="S29" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="T29" s="11">
+        <v>62.444531524443299</v>
+      </c>
       <c r="U29" s="11"/>
       <c r="V29" s="11"/>
       <c r="W29" s="11"/>
@@ -3071,11 +3090,22 @@
       <c r="P30" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="T30" s="11"/>
+      <c r="S30" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="T30" s="11">
+        <v>10</v>
+      </c>
       <c r="U30" s="11"/>
-      <c r="V30" s="11"/>
-      <c r="W30" s="11"/>
-      <c r="X30" s="11"/>
+      <c r="V30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W30" s="1">
+        <v>10</v>
+      </c>
+      <c r="X30" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="31" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
@@ -3123,7 +3153,12 @@
       <c r="P31" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="T31" s="11"/>
+      <c r="S31" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="T31" s="11">
+        <v>60</v>
+      </c>
       <c r="U31" s="11"/>
       <c r="V31" s="11"/>
       <c r="W31" s="11"/>
@@ -3175,7 +3210,12 @@
       <c r="P32" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="T32" s="11"/>
+      <c r="S32" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="T32" s="11">
+        <v>47.829527120675699</v>
+      </c>
       <c r="U32" s="11"/>
       <c r="V32" s="11"/>
       <c r="W32" s="11"/>
@@ -3227,7 +3267,12 @@
       <c r="P33" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="T33" s="11"/>
+      <c r="S33" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="T33" s="11">
+        <v>25</v>
+      </c>
       <c r="U33" s="11"/>
       <c r="V33" s="11"/>
       <c r="W33" s="11"/>
@@ -3279,7 +3324,12 @@
       <c r="P34" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="T34" s="11"/>
+      <c r="S34" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="T34" s="11">
+        <v>29.0119357505049</v>
+      </c>
       <c r="U34" s="11"/>
       <c r="V34" s="11"/>
       <c r="W34" s="11"/>
@@ -3331,7 +3381,12 @@
       <c r="P35" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="T35" s="11"/>
+      <c r="S35" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="T35" s="11">
+        <v>94.627699438656904</v>
+      </c>
       <c r="U35" s="11"/>
       <c r="V35" s="11"/>
       <c r="W35" s="11"/>
@@ -3383,7 +3438,12 @@
       <c r="P36" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="T36" s="11"/>
+      <c r="S36" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="T36" s="11">
+        <v>56.258362843578396</v>
+      </c>
       <c r="U36" s="11"/>
       <c r="V36" s="11"/>
       <c r="W36" s="11"/>
@@ -3435,7 +3495,12 @@
       <c r="P37" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="T37" s="11"/>
+      <c r="S37" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="T37" s="11">
+        <v>62.444531524443299</v>
+      </c>
       <c r="U37" s="11"/>
       <c r="V37" s="11"/>
       <c r="W37" s="11"/>
@@ -3487,7 +3552,12 @@
       <c r="P38" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="T38" s="11"/>
+      <c r="S38" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="T38" s="11">
+        <v>10</v>
+      </c>
       <c r="U38" s="11"/>
       <c r="V38" s="11"/>
       <c r="W38" s="11"/>
@@ -3536,472 +3606,81 @@
       <c r="P39" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="T39" s="11"/>
+      <c r="S39" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="T39" s="11">
+        <v>20</v>
+      </c>
       <c r="U39" s="11"/>
-      <c r="V39" s="11"/>
-      <c r="W39" s="11"/>
-      <c r="X39" s="11"/>
+      <c r="V39" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="W39" s="11">
+        <v>11</v>
+      </c>
+      <c r="X39" s="11">
+        <v>11</v>
+      </c>
     </row>
     <row r="40" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="12">
-        <v>5</v>
-      </c>
-      <c r="B40" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C40" s="12">
-        <v>2023</v>
-      </c>
-      <c r="D40" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="E40" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="F40" s="12">
-        <v>126436</v>
-      </c>
-      <c r="G40" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H40" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="I40" s="12">
-        <v>2</v>
-      </c>
-      <c r="J40" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="K40" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="M40" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="N40" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="O40" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="P40" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="S40" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="T40" s="13">
-        <v>3204.3587623111098</v>
-      </c>
+      <c r="T40" s="13"/>
       <c r="U40" s="13"/>
       <c r="V40" s="13"/>
       <c r="W40" s="13"/>
       <c r="X40" s="13"/>
     </row>
     <row r="41" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="12">
-        <v>5</v>
-      </c>
-      <c r="B41" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C41" s="12">
-        <v>2023</v>
-      </c>
-      <c r="D41" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="E41" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="F41" s="12">
-        <v>126436</v>
-      </c>
-      <c r="G41" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H41" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="I41" s="12">
-        <v>2</v>
-      </c>
-      <c r="J41" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="K41" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="M41" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="N41" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="O41" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="P41" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="S41" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="T41" s="13">
-        <v>47.829527120675699</v>
-      </c>
+      <c r="T41" s="13"/>
       <c r="U41" s="13"/>
       <c r="V41" s="13"/>
       <c r="W41" s="13"/>
       <c r="X41" s="13"/>
     </row>
     <row r="42" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="12">
-        <v>5</v>
-      </c>
-      <c r="B42" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C42" s="12">
-        <v>2023</v>
-      </c>
-      <c r="D42" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="E42" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="F42" s="12">
-        <v>126436</v>
-      </c>
-      <c r="G42" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="H42" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="I42" s="12">
-        <v>2</v>
-      </c>
-      <c r="J42" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="K42" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="N42" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="O42" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="P42" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="S42" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="T42" s="13">
-        <v>25</v>
-      </c>
+      <c r="T42" s="13"/>
       <c r="U42" s="13"/>
-      <c r="V42" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="W42" s="13">
-        <v>10</v>
-      </c>
-      <c r="X42" s="13">
-        <v>10</v>
-      </c>
+      <c r="V42" s="13"/>
+      <c r="W42" s="13"/>
+      <c r="X42" s="13"/>
     </row>
     <row r="43" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="12">
-        <v>5</v>
-      </c>
-      <c r="B43" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C43" s="12">
-        <v>2023</v>
-      </c>
-      <c r="D43" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="E43" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="F43" s="12">
-        <v>126436</v>
-      </c>
-      <c r="G43" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H43" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="I43" s="12">
-        <v>2</v>
-      </c>
-      <c r="J43" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="K43" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="M43" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="N43" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="O43" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="S43" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="T43" s="13">
-        <v>29.0119357505049</v>
-      </c>
+      <c r="T43" s="13"/>
       <c r="U43" s="13"/>
       <c r="V43" s="13"/>
       <c r="W43" s="13"/>
       <c r="X43" s="13"/>
     </row>
     <row r="44" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="12">
-        <v>5</v>
-      </c>
-      <c r="B44" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C44" s="12">
-        <v>2023</v>
-      </c>
-      <c r="D44" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="E44" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="F44" s="12">
-        <v>126436</v>
-      </c>
-      <c r="G44" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H44" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="I44" s="12">
-        <v>2</v>
-      </c>
-      <c r="J44" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="K44" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="M44" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="N44" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="O44" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="P44" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="S44" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="T44" s="13">
-        <v>94.627699438656904</v>
-      </c>
+      <c r="T44" s="13"/>
       <c r="U44" s="13"/>
       <c r="V44" s="13"/>
       <c r="W44" s="13"/>
       <c r="X44" s="13"/>
     </row>
     <row r="45" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="12">
-        <v>5</v>
-      </c>
-      <c r="B45" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C45" s="12">
-        <v>2023</v>
-      </c>
-      <c r="D45" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="E45" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="F45" s="12">
-        <v>126436</v>
-      </c>
-      <c r="G45" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H45" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="I45" s="12">
-        <v>2</v>
-      </c>
-      <c r="J45" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="K45" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="M45" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="N45" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="O45" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="P45" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="S45" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="T45" s="13">
-        <v>56.258362843578396</v>
-      </c>
+      <c r="T45" s="13"/>
       <c r="U45" s="13"/>
       <c r="V45" s="13"/>
       <c r="W45" s="13"/>
       <c r="X45" s="13"/>
     </row>
     <row r="46" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="12">
-        <v>5</v>
-      </c>
-      <c r="B46" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C46" s="12">
-        <v>2023</v>
-      </c>
-      <c r="D46" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="E46" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="F46" s="12">
-        <v>126436</v>
-      </c>
-      <c r="G46" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H46" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="I46" s="12">
-        <v>2</v>
-      </c>
-      <c r="J46" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="K46" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="M46" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="N46" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="O46" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="S46" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="T46" s="13">
-        <v>62.444531524443299</v>
-      </c>
+      <c r="T46" s="13"/>
       <c r="U46" s="13"/>
       <c r="V46" s="13"/>
       <c r="W46" s="13"/>
       <c r="X46" s="13"/>
     </row>
     <row r="47" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="12">
-        <v>5</v>
-      </c>
-      <c r="B47" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C47" s="12">
-        <v>2023</v>
-      </c>
-      <c r="D47" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="E47" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="F47" s="12">
-        <v>126436</v>
-      </c>
-      <c r="G47" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="H47" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="I47" s="12">
-        <v>2</v>
-      </c>
-      <c r="J47" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="K47" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="N47" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="O47" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="P47" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="S47" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="T47" s="13">
-        <v>0</v>
-      </c>
+      <c r="T47" s="13"/>
       <c r="U47" s="13"/>
-      <c r="V47" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="W47" s="13">
-        <v>1</v>
-      </c>
-      <c r="X47" s="13">
-        <v>1</v>
-      </c>
+      <c r="V47" s="13"/>
+      <c r="W47" s="13"/>
+      <c r="X47" s="13"/>
     </row>
     <row r="50" spans="15:15" x14ac:dyDescent="0.3">
-      <c r="O50" s="12" t="s">
-        <v>112</v>
-      </c>
+      <c r="O50" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -8250,27 +7929,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
-    <TaxCatchAllLabel xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
-    <TaxKeywordTaxHTField xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C227E214A244A84FBAA5152CDD6EAC80" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9202a1ecfe0ad2ec696e0f91981ba8e0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4d5313c0-c1e6-4122-afa9-da1ccdba405d" xmlns:ns3="362c980f-4e38-4cca-bd06-5104ee5993c5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a46f65cc92525120babafc4c69c5d04c" ns2:_="" ns3:_="">
     <xsd:import namespace="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
@@ -8447,32 +8105,28 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60664607-CBCD-4AFC-843C-4CFA04400440}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="362c980f-4e38-4cca-bd06-5104ee5993c5"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{718E005C-88DE-4F66-B59B-F1C1FF5E3D2A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+    <TaxCatchAllLabel xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+    <TaxKeywordTaxHTField xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD780A6C-FDDC-4177-9817-26C904DC3A4B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8489,4 +8143,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{718E005C-88DE-4F66-B59B-F1C1FF5E3D2A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60664607-CBCD-4AFC-843C-4CFA04400440}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="362c980f-4e38-4cca-bd06-5104ee5993c5"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/WGRDBESstockCoord/format/RCEF_v14_suggestions/RCEF_tv14.5_example.xlsx
+++ b/WGRDBESstockCoord/format/RCEF_v14_suggestions/RCEF_tv14.5_example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dtudk-my.sharepoint.com/personal/kibi_dtu_dk/Documents/gits/RDBESstockCoord/WGRDBESstockCoord/format/RCEF_v14_suggestions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="87" documentId="8_{951D2149-635F-40D6-A3C2-D99581A494DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{98B44E74-58BD-4B00-8C3D-7749EA7BD794}"/>
+  <xr:revisionPtr revIDLastSave="112" documentId="8_{951D2149-635F-40D6-A3C2-D99581A494DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D34CB96C-79AD-445A-936B-59AB589DED9D}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="735" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1271" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="115">
   <si>
     <t>year</t>
   </si>
@@ -370,6 +370,24 @@
   </si>
   <si>
     <t>WGFleet, WGFleetList, Metier6, Metier6List, Metier5, Metier5List, Metier4, Metier4List</t>
+  </si>
+  <si>
+    <t>Q4-All-Active</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>kg</t>
+  </si>
+  <si>
+    <t>SDN_DEF_&gt;=120_0_0</t>
+  </si>
+  <si>
+    <t>Metier6List</t>
+  </si>
+  <si>
+    <t>OTB_CRU_90-119_0_0; OTB_DEF_90-119_0_0</t>
   </si>
 </sst>
 </file>
@@ -443,7 +461,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -457,7 +475,8 @@
     <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -899,6 +918,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B48A55BC-D03E-4CBB-A0B5-0F479A2B792C}" name="Table3" displayName="Table3" ref="A2:Y47" totalsRowShown="0" dataDxfId="28">
   <autoFilter ref="A2:Y47" xr:uid="{B48A55BC-D03E-4CBB-A0B5-0F479A2B792C}"/>
@@ -1368,23 +1391,23 @@
   <sheetPr>
     <tabColor rgb="FFEE0000"/>
   </sheetPr>
-  <dimension ref="A1:Y50"/>
+  <dimension ref="A1:Z47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P55" sqref="P55"/>
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.21875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.77734375" customWidth="1"/>
     <col min="11" max="11" width="16.77734375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="24.5546875" bestFit="1" customWidth="1"/>
@@ -1395,12 +1418,12 @@
     <col min="17" max="17" width="25.44140625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="31.33203125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="14.109375" customWidth="1"/>
-    <col min="20" max="20" width="6.88671875" style="6" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8" style="6" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12" style="6" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="10" style="6" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -3221,7 +3244,7 @@
       <c r="W32" s="11"/>
       <c r="X32" s="11"/>
     </row>
-    <row r="33" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>4</v>
       </c>
@@ -3278,7 +3301,7 @@
       <c r="W33" s="11"/>
       <c r="X33" s="11"/>
     </row>
-    <row r="34" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>4</v>
       </c>
@@ -3335,7 +3358,7 @@
       <c r="W34" s="11"/>
       <c r="X34" s="11"/>
     </row>
-    <row r="35" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>4</v>
       </c>
@@ -3392,7 +3415,7 @@
       <c r="W35" s="11"/>
       <c r="X35" s="11"/>
     </row>
-    <row r="36" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>4</v>
       </c>
@@ -3449,7 +3472,7 @@
       <c r="W36" s="11"/>
       <c r="X36" s="11"/>
     </row>
-    <row r="37" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>4</v>
       </c>
@@ -3506,7 +3529,7 @@
       <c r="W37" s="11"/>
       <c r="X37" s="11"/>
     </row>
-    <row r="38" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>4</v>
       </c>
@@ -3563,7 +3586,7 @@
       <c r="W38" s="11"/>
       <c r="X38" s="11"/>
     </row>
-    <row r="39" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>4</v>
       </c>
@@ -3623,64 +3646,491 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="T40" s="13"/>
-      <c r="U40" s="13"/>
-      <c r="V40" s="13"/>
-      <c r="W40" s="13"/>
-      <c r="X40" s="13"/>
-    </row>
-    <row r="41" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="T41" s="13"/>
-      <c r="U41" s="13"/>
-      <c r="V41" s="13"/>
-      <c r="W41" s="13"/>
-      <c r="X41" s="13"/>
-    </row>
-    <row r="42" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="T42" s="13"/>
-      <c r="U42" s="13"/>
-      <c r="V42" s="13"/>
-      <c r="W42" s="13"/>
-      <c r="X42" s="13"/>
-    </row>
-    <row r="43" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="T43" s="13"/>
-      <c r="U43" s="13"/>
-      <c r="V43" s="13"/>
-      <c r="W43" s="13"/>
-      <c r="X43" s="13"/>
-    </row>
-    <row r="44" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="T44" s="13"/>
-      <c r="U44" s="13"/>
-      <c r="V44" s="13"/>
-      <c r="W44" s="13"/>
-      <c r="X44" s="13"/>
-    </row>
-    <row r="45" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="T45" s="13"/>
-      <c r="U45" s="13"/>
-      <c r="V45" s="13"/>
-      <c r="W45" s="13"/>
-      <c r="X45" s="13"/>
-    </row>
-    <row r="46" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="T46" s="13"/>
-      <c r="U46" s="13"/>
-      <c r="V46" s="13"/>
-      <c r="W46" s="13"/>
-      <c r="X46" s="13"/>
-    </row>
-    <row r="47" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="T47" s="13"/>
-      <c r="U47" s="13"/>
-      <c r="V47" s="13"/>
-      <c r="W47" s="13"/>
-      <c r="X47" s="13"/>
-    </row>
-    <row r="50" spans="15:15" x14ac:dyDescent="0.3">
-      <c r="O50" s="12"/>
+    <row r="40" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="13">
+        <v>5</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" s="13">
+        <v>2023</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F40" s="13">
+        <v>126436</v>
+      </c>
+      <c r="G40" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H40" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="I40" s="13">
+        <v>4</v>
+      </c>
+      <c r="J40" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="K40" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="M40" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="N40" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="O40" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="P40" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="S40" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="T40" s="13">
+        <v>5213.0924159782999</v>
+      </c>
+      <c r="U40" s="14"/>
+      <c r="V40" s="14"/>
+      <c r="W40" s="14"/>
+      <c r="X40" s="14"/>
+    </row>
+    <row r="41" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="13">
+        <v>5</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C41" s="13">
+        <v>2023</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F41" s="13">
+        <v>126436</v>
+      </c>
+      <c r="G41" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H41" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="I41" s="13">
+        <v>4</v>
+      </c>
+      <c r="J41" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="K41" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="M41" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="N41" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="O41" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="P41" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="S41" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="T41" s="13">
+        <v>508.76264385752398</v>
+      </c>
+      <c r="U41" s="14"/>
+      <c r="V41" s="14"/>
+      <c r="W41" s="14"/>
+      <c r="X41" s="14"/>
+    </row>
+    <row r="42" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="13">
+        <v>5</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" s="13">
+        <v>2023</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F42" s="13">
+        <v>126436</v>
+      </c>
+      <c r="G42" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H42" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="I42" s="13">
+        <v>4</v>
+      </c>
+      <c r="J42" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="K42" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="M42" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="N42" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="O42" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="S42" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="T42" s="13">
+        <v>27.122915246888301</v>
+      </c>
+      <c r="U42" s="14"/>
+      <c r="V42" s="14"/>
+      <c r="W42" s="14"/>
+      <c r="X42" s="14"/>
+    </row>
+    <row r="43" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="13">
+        <v>5</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43" s="13">
+        <v>2023</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F43" s="13">
+        <v>126436</v>
+      </c>
+      <c r="G43" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H43" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="I43" s="13">
+        <v>4</v>
+      </c>
+      <c r="J43" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="K43" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="N43" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="O43" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="P43" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="S43" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="T43" s="13">
+        <v>25</v>
+      </c>
+      <c r="U43" s="14"/>
+      <c r="V43" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="W43" s="14">
+        <v>5</v>
+      </c>
+      <c r="X43" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>5</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C44" s="1">
+        <v>2023</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F44" s="1">
+        <v>126436</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I44" s="1">
+        <v>4</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="P44" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1"/>
+      <c r="S44" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="T44" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="U44" s="1">
+        <v>5213.0924159782999</v>
+      </c>
+      <c r="V44" s="1"/>
+      <c r="W44" s="1"/>
+      <c r="X44" s="1"/>
+      <c r="Y44" s="1"/>
+      <c r="Z44" s="1"/>
+    </row>
+    <row r="45" spans="1:26" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>5</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45" s="1">
+        <v>2023</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F45" s="1">
+        <v>126436</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I45" s="1">
+        <v>4</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="P45" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1"/>
+      <c r="S45" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="T45" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="U45" s="1">
+        <v>508.76264385752398</v>
+      </c>
+      <c r="V45" s="1"/>
+      <c r="W45" s="1"/>
+      <c r="X45" s="1"/>
+      <c r="Y45" s="1"/>
+      <c r="Z45" s="1"/>
+    </row>
+    <row r="46" spans="1:26" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>5</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46" s="1">
+        <v>2023</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F46" s="1">
+        <v>126436</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I46" s="1">
+        <v>4</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="O46" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="1"/>
+      <c r="S46" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="T46" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="U46" s="1">
+        <v>27.122915246888301</v>
+      </c>
+      <c r="V46" s="1"/>
+      <c r="W46" s="1"/>
+      <c r="X46" s="1"/>
+      <c r="Y46" s="1"/>
+      <c r="Z46" s="1"/>
+    </row>
+    <row r="47" spans="1:26" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>5</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C47" s="1">
+        <v>2023</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F47" s="1">
+        <v>126436</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I47" s="1">
+        <v>4</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="O47" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="P47" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="1"/>
+      <c r="S47" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="T47" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="U47" s="1">
+        <v>25</v>
+      </c>
+      <c r="V47" s="1"/>
+      <c r="W47" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X47" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y47" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z47" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -8106,15 +8556,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
@@ -8124,6 +8565,15 @@
     </TaxKeywordTaxHTField>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8146,14 +8596,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{718E005C-88DE-4F66-B59B-F1C1FF5E3D2A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60664607-CBCD-4AFC-843C-4CFA04400440}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -8168,4 +8610,12 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{718E005C-88DE-4F66-B59B-F1C1FF5E3D2A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>